--- a/scr/group_6/Сравнительная таблица_Ганиев_Звягин_Лавлинский.xlsx
+++ b/scr/group_6/Сравнительная таблица_Ганиев_Звягин_Лавлинский.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dd7218e4d767a53/Рабочий стол/Институт/ПД/2-курс-2-семестр/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{BFD0D614-D3FE-9A4E-95CC-1E17AF6B2B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DED167-A539-4CEA-8CA4-1937A5087832}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{BFD0D614-D3FE-9A4E-95CC-1E17AF6B2B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E29451-34D3-4CE8-B748-B14E8BE3FE0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C18E172-BA56-8841-A8DE-289CE595983B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>ISO 27004</t>
   </si>
@@ -156,17 +156,6 @@
   </si>
   <si>
     <t>71) 8.12 Data leakage prevention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гарантия того, что только авторизованным пользователям, программным компонентам и службам предоставляются привилегированные права доступа.
-Распределение привилегированных прав доступа должно контролироваться с помощью процесса авторизации в
-соответствии с соответствующей тематической политикой управления доступом. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Распределение и использование привилегированных прав доступа следует ограничивать и контролировать. Назначение привилегированных прав доступа должно контропироваться посредством формали- зованного процесса аутентификации в соответствии с действующей политикой управления доступом. </t>
-  </si>
-  <si>
-    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В этих стандартах по разному определены номера контролей.</t>
   </si>
   <si>
     <t>Средства реализации:
@@ -208,13 +197,6 @@
 Доступ к исходному тексту программы должен быть ограничен.</t>
   </si>
   <si>
-    <t>Предотвращение внедрения несанкционированной функциональности, избежать непреднамеренных или злонамеренных изменений и сохранить конфиденциальность ценной интеллектуальной собственности. Доступ к исходному коду и связанным с ним элементам (таким как проекты, спецификации, планы проверки) и средствам разработки (например, компиляторам, сборщикам, инструментам интеграции, тестовым платформам и средам) должен строго контролироваться. Доступ на чтение и запись к исходному коду может отличаться в зависимости от роли персонала. де компоненты кода используются несколькими разработчиками в организации, должен быть реализован доступ на чтение к централизованному хранилищу кода. Кроме того, если внутри организации используется код с открытым исходным кодом или компоненты кода сторонних производителей, доступ на чтение к таким внешним репозиториям кода может быть широко предоставлен. Однако
-доступ на запись все равно должен быть ограничен.</t>
-  </si>
-  <si>
-    <t>Доступ к исходному коду программы и связанным сним элементам (таким, как проекты, спецификации, планы верификации и валидации) должен строго контролироваться для того, чтобы предствратить внедрение в него несанкционированного функционала и избежать непреднамеренных изменений, а такке сохранить конфиденциальность ценной интеллектуальной собственности, Для исходного кода программы это может быть достигнуто путем контролируемого централизованного хранения такого кода, предпочтительно в библиотеках исходных кодов программ.</t>
-  </si>
-  <si>
     <t>Средства реализации:
 Там, где это требуется политикой контроля доступа,  доступ к системам и приложениям должен осуществляться в соответствии с безопасной процедурой входа в систему.</t>
   </si>
@@ -243,13 +225,6 @@
   <si>
     <t>Мера обеспечения информационной безопасности:
 Необходимо осуществлять мониторинг, корректировку и прогнозирова_x0002_ние использования ресурсов, исходя из будущих требований к производительности, для обеспечения требуемой производительности системы.</t>
-  </si>
-  <si>
-    <t>Обеспечение необходимой пропускной способности средств обработки информации, людских ресурсов, офисов и других объектов. Следует определить потребности в пропускной способности для средств обработки информации, людских ресурсов, офисов и других объектов с учетом критичности для бизнеса соответствующих систем ипроцессов. Настройка и мониторинг системы должны применяться для обеспечения и, при необходимости, повышения доступности и эффективности систем. Организация должна проводить стресс-тесты систем и служб, чтобы подтвердить, что достаточная система мощность доступна для удовлетворения требований к максимальной производительности.
-Следует ввести в действие средства контроля за расследованием, чтобы своевременно выявлять проблемы. Прогнозы будущих потребностей в мощности должны учитывать новые бизнес- и системные требования, а также текущие и прогнозируемые тенденции в возможностях организации по обработке информации.</t>
-  </si>
-  <si>
-    <t>Требования к производительности должны быть определены с учетом важности рассматриваемой системы для бизнеса. Необходимо проводить настройку и мониторинг системы для гарантии и, где это применимо, повышения доступности и эффективности системы. Прогнозирования требований к производительности должны учитывать новые требования как со стороны бизнеса, так и со сторон систем, а также текущие и будущие тенденции в возможностях обработки информации в организации. Особое внимание следует уделять ресурсам, требуюшим длительного времени на закупку или высоких затрат, поэтому руководители должны следить за использованием ключевых системных ресурсов.  Руководители должны использовать информацию для выявления зависимости от основных работников и предотвращения потенциальных узних мест, которые могут представлять угрозу безопасности систеи или сервисов, а также ппанирования соответствующего действия.</t>
   </si>
   <si>
     <t>Средства реализации:
@@ -305,9 +280,6 @@
 c) использование одобренного программного обеспечения для безопасного удаления для окончательного удаления информации;
 d) использование утвержденных, сертифицированных поставщиков услуг по безопасной утилизации;
 e) использование механизмов утилизации, соответствующих типу утилизируемых носителей информации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данный контроль присутствует только в стандарте ISO 27002. В других стандартах команда не обнаружила какую-либо информацию схожию с описанием данного контроля </t>
   </si>
   <si>
     <t>Данный контроль не обнаружен, так как введен только в 2022 году.</t>
@@ -331,6 +303,85 @@
 b) обнаруживать раскрытие конфиденциальной информации (например, когда информация загружается в ненадежные
 сторонние облачные сервисы или отправляется по электронной почте);
 c) блокировать действия пользователя или сетевые передачи, которые раскрывают конфиденциальную информацию.</t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В ISO 27002 подробнее описана ответственность пользователей и рекомендации пользователям. Также ISO 27002 описывает подробенее дополнительные меры при использовании личных  устройств пользователя, чем ГОСТ Р ИСО/МЭК 27002-2021. При этом в ГОСТе Р ИСО/МЭК 27002-2021 дана рекомендация о необходимости организации обучения персонала, использующие личные устройства.</t>
+  </si>
+  <si>
+    <t>Гарантия того, что только авторизованным пользователям, программным компонентам и службам предоставляются привилегированные права доступа.
+Распределение привилегированных прав доступа должно контролироваться с помощью процесса авторизации в
+соответствии с соответствующей тематической политикой управления доступом. Следует
+учитывать следующее:
+а)определение пользователей, которым требуются привилегированные права доступа для каждой системы или процесса (например, операционных
+систем, систем управления базами данных и приложений);
+б)распределение привилегированных прав доступа пользователям по мере необходимости и на индивидуальной основе в соответствии с
+политикой управления доступом для конкретной темы (т.е. только лицам, обладающим необходимой
+компетенцией для выполнения действий, требующих привилегированного доступа, и на основе минимальных
+требований к их функциональным ролям) и др.</t>
+  </si>
+  <si>
+    <t>Распределение и использование привилегированных прав доступа следует ограничивать и контролировать. Назначение привилегированных прав доступа должно контропироваться посредством формализованного процесса аутентификации в соответствии с действующей политикой управления доступом. При этом должны быть предусмотрены следующие шаги:
+a) идентификация привилегированных прав доступа, связанных с каждой системой или процессом, например операционной системой, системой управления базами данных, каждым приложением и пользователями, которым требуется назначение таких прав;
+b) привилегированные права доступа должны назначаться пользователям исходя из принципов «необходимого использования» и «предоставления доступа по событию» в соответствии с политикой управления доступом, то есть по минимуму для их функциональных ролей;
+c) все процессы аутентификации и назначения привилегий должны регистрироваться. Привилегированные права доступа не должны предоставляться до завершения процесса аутентификации и др;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021.  ISO 27002 в отличие от ГОСТа Р ИСО/МЭК 27002-2021 учитывает большее количество рекомендаций по управлению привилегированными правами доступа. Также заметны отличия в рекомендациях по управлению привилегированными правами доступа, сформулированных в данных документах. Например, в ГОСТе Р ИСО/МЭК 27002-2021 нет рекомендации о том, что требования к проверке подлинности для привилегированных прав доступа могут быть выше, чем требования для обычных прав доступа. </t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены явные отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В  ISO 27002 учитываются методы и процессы динамического управления доступом для защиты конфиденциальной информации, имеющей высокую ценность для организации, описывается то, каким путем динамические системы управления доступом должны защищать информацию . В то же время  ГОСТ Р ИСО/МЭК 27002-2021 учитывает требования только по ограничению доступа к информации.</t>
+  </si>
+  <si>
+    <t>Доступ к исходному коду программы и связанным с ним элементам должен строго контролироваться для того, чтобы предотвратить внедрение в него несанкционированного функционала и избежать непреднамеренных изменений, а также сохранить конфиденциальность ценной интеллектуальной собственности. Для исходного кода программы это может быть достигнуто путем контролируемого централизованного хранения такого кода, предпочтительно в библиотеках исходных кодов программ. Затем следует учесть следующие рекомендации для управления доступом к таким библиотекам исходных кодов программ для того, чтобы уменьшить вероятность повреждения компьютерных программ:
+a) где это возможно, библиотеки исходных кодов программ не должны содержаться в эксплуатируемых системах;
+b) исходный код программы и библиотеки исходных кодов программы должны управляться в соответствии с установленными процедурами;
+c) вспомогательный персонал не должен иметь неограниченный доступ к библиотекам исходных кодов программы;
+d) обновление библиотек исходных кодов программ и связанных с ними элементов, а также выдача исходного кода программистам должна выполняться только после прохождения соответствующей
+авторизации и др;</t>
+  </si>
+  <si>
+    <t>Предотвращение внедрения несанкционированной функциональности, избежать непреднамеренных или злонамеренных изменений и сохранить конфиденциальность ценной интеллектуальной собственности. Доступ к исходному коду и связанным с ним элементам и средствам разработки  должен строго контролироваться. Кроме того, если внутри организации используется код с открытым исходным кодом или компоненты кода сторонних производителей, доступ на чтение к таким внешним репозиториям кода может быть широко предоставлен.Для контроля доступа к библиотекам исходных текстов программ следует учитывать следующие рекомендации, чтобы снизить вероятность повреждения компьютерных программ:
+а)управление доступом к исходному коду программы и библиотекам исходных текстов программы в соответствии с установленными процедурами;
+b)предоставление доступа на чтение и запись к исходному коду, основанному на бизнес-потребностях и управляемому с учетом рисков изменения или неправильного использования и в соответствии с установленными процедурами;
+c)обновление исходного кода и связанных с ним элементов и предоставление доступа к исходному коду в соответствии с процедурами контроля изменение и выполнение его только после получения соответствующего разрешения и др;</t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021.  ГОСТ Р ИСО/МЭК 27002-2021 предлагает больше рекомендаций по защите исходного кода программы в отсличие от  ISO 27002. Также рекомедации в этих стандартах в большинстве своем отличаются. Наример, в национальном стандарте дана следующая рекомендация, которой нет в международном стандарте: "где это возможно, библиотеки исходных кодов программ не должны содержаться в эксплуати-
+руемых системах" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В ISO 27002 более подробно описана информация о комбинированных методах аутентификаци пользвателя. Рекомендации, которые предлагают данные стандарты достаточно схожи. </t>
+  </si>
+  <si>
+    <t>Обеспечение необходимой пропускной способности средств обработки информации, людских ресурсов, офисов и других объектов. Следует определить потребности в пропускной способности для средств обработки информации, людских ресурсов, офисов и других объектов с учетом критичности для бизнеса соответствующих систем ипроцессов. Настройка и мониторинг системы должны применяться для обеспечения и, при необходимости, повышения доступности и эффективности систем. Организация должна проводить стресс-тесты систем и служб, чтобы подтвердить, что достаточная система мощность доступна для удовлетворения требований к максимальной производительности.
+Для увеличения пропускной способности следует учитывать следующее:
+а)наем нового персонала;
+б)получение новых помещений или площадей;
+c)приобретение более мощных систем обработки, памяти и хранения;
+d)использование облачных вычислений, которые обладают неотъемлемыми характеристиками, непосредственно решающими проблемы пропускной способности. Для снижения спроса на ресурсы организации следует учитывать следующее:
+а)удаление устаревших данных (дисковое пространство);
+б)утилизация бумажных документов, срок хранения которых истек);
+c)вывод из эксплуатации приложений, систем, баз данных или сред и др;</t>
+  </si>
+  <si>
+    <t>Требования к производительности должны быть определены с учетом важности рассматриваемой системы для бизнеса. Необходимо проводить настройку и мониторинг системы для гарантии и, где это применимо, повышения доступности и эффективности системы. Прогнозирования требований к производительности должны учитывать новые требования как со стороны бизнеса, так и со сторон систем, а также текущие и будущие тенденции в возможностях обработки информации в организации. Особое внимание следует уделять ресурсам, требуюшим длительного времени на закупку или высоких затрат, поэтому руководители должны следить за использованием ключевых системных ресурсов.  Руководители должны использовать информацию для выявления зависимости от основных работников и предотвращения потенциальных узних мест, которые могут представлять угрозу безопасности систеи или сервисов, а также ппанирования соответствующего действия.Обеспечение достаточного уровня производительности может быть достигнуто как путем наращивания мощностей, так и снижением спроса. Примеры мер снижения спроса включают в себя:
+a) удаление устаревших данных ;
+b) вывод из эксплуатации приложений, систем, баз данных;
+c) оптимизацию пакетных заданий и расписаний;
+d) оптимизацию логики приложения или запросов к базе данных:
+e) запрет или ограничение полосы пропускания для ресурсоемких сервисов, если они не являются критически важными для бизнеса.</t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. ISO 27002 в отличие от ГОСТа Р ИСО/МЭК 27002-2021 прелагает рекомендации по повышению производительности.  Меры снижения спроса, прелагаемые в стандартах, почти не имеют отличий.</t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021.  ISO 27002 прелагает больше рекомендаций по защите от вредоносных программ, чем ГОСТ Р ИСО/МЭК 27002-2021, при этом рекомендации в этих стандартах разные(есть несколько рекомендаций, которые предлагают схожие идеи). Однако ГОСТ Р ИСО/МЭК 27002-2021 дает информацию о том, как лучше использовать программные продукты защиты информации, а в  ISO 27002 такой информаци нет.</t>
+  </si>
+  <si>
+    <t>Особых отличий между ГОСТами ISO и МЭК нет. Найдены отличия между стандартом ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В  ISO 27002 помимо рекомендаций для устранений технических уязвимостей дана информация о том, как необходимо проводить оценку технических уязвимостей, о том, что организация должна рассмотреть для  выявление технических уязвимостей, а в  ГОСТе Р ИСО/МЭК 27002-2021 даны только рекомендации по устранению технических уязвимостей. Также в  ISO 27002 более подробно, чем в ГОСТе Р ИСО/МЭК 27002-2021, рассмотрен данный контроль как подфункция управления изменениями.</t>
+  </si>
+  <si>
+    <t>Так как данный контроля введен только в 2022 году, то информации для сравнения стандартов нет. Однако, основываясь на сравнениях прошлых  контролей, можно предположить, что стандарты будут отличаться количеством рекомендаций, а также какой-либо дополнительной полезной информацией.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,32 +593,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604FE33-ED0B-0B45-9197-C1FB2F8EC3BC}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -895,8 +943,8 @@
     <col min="1" max="1" width="37" style="11" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="72.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="43.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="51.296875" style="1" customWidth="1"/>
@@ -908,7 +956,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -940,23 +988,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="408.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -988,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -996,16 +1044,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -1020,24 +1068,24 @@
         <v>19</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1052,24 +1100,24 @@
         <v>19</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>45</v>
+      <c r="B6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -1084,24 +1132,24 @@
         <v>19</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>48</v>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
@@ -1115,25 +1163,25 @@
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>35</v>
+      <c r="J7" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>51</v>
+      <c r="B8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>18</v>
@@ -1148,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1156,16 +1204,16 @@
         <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
@@ -1180,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1188,16 +1236,16 @@
         <v>28</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -1212,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1220,16 +1268,16 @@
         <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -1244,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1252,16 +1300,16 @@
         <v>30</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
@@ -1276,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1284,16 +1332,16 @@
         <v>31</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
@@ -1308,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="408.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1316,16 +1364,16 @@
         <v>32</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
@@ -1340,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.45">
